--- a/4月/4月份客户发货需求(4.12).xlsx
+++ b/4月/4月份客户发货需求(4.12).xlsx
@@ -2082,7 +2082,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
+      <selection pane="bottomLeft" activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5022,7 +5022,7 @@
         <v>275</v>
       </c>
       <c r="Z67" s="3">
-        <f t="shared" ref="Z67:Z114" si="5">SUM(J67:R67)</f>
+        <f t="shared" ref="Z67:Z113" si="5">SUM(J67:R67)</f>
         <v>1</v>
       </c>
       <c r="AA67" s="3" t="str">

--- a/4月/4月份客户发货需求(4.12).xlsx
+++ b/4月/4月份客户发货需求(4.12).xlsx
@@ -363,12 +363,72 @@
         </r>
       </text>
     </comment>
+    <comment ref="F116" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只要老厂的货。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F117" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只要老厂的货。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F123" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>新款粉色</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F129" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>U型枕1个粉红，2个蓝色</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="404">
   <si>
     <t>下单日期</t>
   </si>
@@ -1558,6 +1618,135 @@
   </si>
   <si>
     <t>广东省广州市番禺区迎新路8号星力动漫G35金汇科技</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤梦玲</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内发货</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯晨莹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江省舟山市定海区康城公寓3幢205室</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK5-1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江省杭州市萧山区新塘街道 羽绒工业园区,杭州永联电缆有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈文乐</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱源</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9m*0.95m*10cm -1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨小妹转ling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广东省深圳市宝安区福永新和新兴工业区一区10栋一楼 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>总裁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄淑来</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内发货</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省宜昌市西陵区城东大道东山花园35栋112</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省镇江市扬中市横龙嘉苑565号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈金海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁省朝阳市北票市欣怡家园小区一单元9楼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>李佳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁省大连市金州区中长街道观山悦二期B8-2703</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄冕</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>us10-1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴春媚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省佛山市南海区狮山镇官窑永安大道24一25号（军仔补胎店）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨帆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷茵</t>
+  </si>
+  <si>
+    <t>云南省文山壮族苗族自治州文山市凤凰路1号华宇卧龙府小区7幢1单元1706号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷萍</t>
+  </si>
+  <si>
+    <t>云南省文山壮族苗族自治州文山市七花北路55号后排（钟灵小区北3路78号对面）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK7.5-1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK10-1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷萍</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南省玉溪市通海县秀山街道古城东路95号</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1721,7 +1910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1801,6 +1990,7 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2081,8 +2271,8 @@
   <dimension ref="A1:AA257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H123" sqref="H123"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7028,860 +7218,1355 @@
       <c r="J115" s="4">
         <v>10</v>
       </c>
+      <c r="Z115" s="3">
+        <f t="shared" ref="Z115:Z128" si="7">SUM(J115:R115)</f>
+        <v>10</v>
+      </c>
       <c r="AA115" s="3" t="str">
         <f t="shared" si="6"/>
         <v>U1-10;</v>
       </c>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A116" s="10">
+        <v>43567</v>
+      </c>
+      <c r="B116" s="3">
+        <v>5872243640</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G116" s="3">
+        <v>18857092661</v>
+      </c>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="U116" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z116" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AA116" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>UK5-1</v>
       </c>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A117" s="10">
+        <v>43567</v>
+      </c>
+      <c r="B117" s="3">
+        <v>6712352494</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G117" s="3">
+        <v>18857092661</v>
+      </c>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="J117" s="4">
+        <v>1</v>
+      </c>
+      <c r="K117" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z117" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
       <c r="AA117" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>U1-1;U2-1;</v>
       </c>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A118" s="10">
+        <v>43567</v>
+      </c>
+      <c r="B118" s="3">
+        <v>4744866621</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G118" s="3">
+        <v>15824472588</v>
+      </c>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="N118" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z118" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
       <c r="AA118" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>U6-1;U9-1;</v>
       </c>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A119" s="10">
+        <v>43567</v>
+      </c>
+      <c r="B119" s="3">
+        <v>6196774038</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G119" s="3">
+        <v>19919871250</v>
+      </c>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="U119" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z119" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AA119" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1.9m*0.95m*10cm -1</v>
       </c>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A120" s="10">
+        <v>43567</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1910232516</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G120" s="3">
+        <v>13599991255</v>
+      </c>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J120" s="4">
+        <v>2</v>
+      </c>
+      <c r="K120" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q120" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z120" s="3">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
       <c r="AA120" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>U1-2;U2-2;U9-2;</v>
       </c>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A121" s="10">
+        <v>43567</v>
+      </c>
+      <c r="B121" s="3">
+        <v>7993441331</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="G121" s="3">
+        <v>13861367431</v>
+      </c>
+      <c r="I121" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="K121" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z121" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="AA121" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>U2-1;</v>
       </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A122" s="10">
+        <v>43567</v>
+      </c>
+      <c r="B122" s="3">
+        <v>6351110344</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G122" s="3">
+        <v>18601239906</v>
+      </c>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="J122" s="4">
+        <v>2</v>
+      </c>
+      <c r="K122" s="4">
+        <v>2</v>
+      </c>
+      <c r="L122" s="4">
+        <v>1</v>
+      </c>
+      <c r="M122" s="4">
+        <v>1</v>
+      </c>
+      <c r="O122" s="4">
+        <v>1</v>
+      </c>
+      <c r="P122" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="4">
+        <v>1</v>
+      </c>
+      <c r="R122" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z122" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
       <c r="AA122" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>U1-2;U2-2;U3-1;U4-1;U7-1;U8-1;U9-1;U10-1;</v>
       </c>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A123" s="10">
+        <v>43567</v>
+      </c>
+      <c r="B123" s="3">
+        <v>7550394187</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G123" s="3">
+        <v>15041139822</v>
+      </c>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="P123" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z123" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="AA123" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>U8-1;</v>
       </c>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A124" s="10">
+        <v>43567</v>
+      </c>
+      <c r="B124" s="3">
+        <v>5230057315</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G124" s="3">
+        <v>13724989834</v>
+      </c>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="U124" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z124" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AA124" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>us10-1</v>
       </c>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A125" s="10">
+        <v>43567</v>
+      </c>
+      <c r="B125" s="3">
+        <v>8866697705</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G125" s="3">
+        <v>13724989834</v>
+      </c>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="K125" s="4">
+        <v>1</v>
+      </c>
+      <c r="L125" s="4">
+        <v>1</v>
+      </c>
+      <c r="U125" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z125" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
       <c r="AA125" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>U2-1;U3-1;UK7.5-1</v>
       </c>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A126" s="10">
+        <v>43567</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1320826244</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G126" s="3">
+        <v>13887509992</v>
+      </c>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="U126" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z126" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AA126" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>UK10-1</v>
       </c>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A127" s="10">
+        <v>43567</v>
+      </c>
+      <c r="B127" s="3">
+        <v>8534671745</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G127" s="3">
+        <v>13887509493</v>
+      </c>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J127" s="4">
+        <v>2</v>
+      </c>
+      <c r="K127" s="4">
+        <v>2</v>
+      </c>
+      <c r="P127" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q127" s="4">
+        <v>3</v>
+      </c>
+      <c r="R127" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z127" s="3">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
       <c r="AA127" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.15">
+        <v>U1-2;U2-2;U8-3;U9-3;U10-1;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A128" s="10">
+        <v>43567</v>
+      </c>
+      <c r="B128" s="3">
+        <v>9612768646</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G128" s="3">
+        <v>13887509493</v>
+      </c>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="K128" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z128" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="AA128" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.15">
+        <v>U2-1;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A129" s="10">
+        <v>43567</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1870477775</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G129" s="3">
+        <v>15087725235</v>
+      </c>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="AA129" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA130" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA131" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA132" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA133" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA134" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA135" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA136" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA137" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA138" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA139" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA140" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA141" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA142" s="3" t="str">
-        <f t="shared" ref="AA142:AA205" si="7">IF(J142&gt;0,"U1-"&amp;J142&amp;";","")&amp;IF(K142&gt;0,"U2-"&amp;K142&amp;";","")&amp;IF(L142&gt;0,"U3-"&amp;L142&amp;";","")&amp;IF(M142&gt;0,"U4-"&amp;M142&amp;";","")&amp;IF(N142&gt;0,"U6-"&amp;N142&amp;";","")&amp;IF(O142&gt;0,"U7-"&amp;O142&amp;";","")&amp;IF(P142&gt;0,"U8-"&amp;P142&amp;";","")&amp;IF(Q142&gt;0,"U9-"&amp;Q142&amp;";","")&amp;IF(R142&gt;0,"U10-"&amp;R142&amp;";","")&amp;U142</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.15">
+        <f t="shared" ref="AA142:AA205" si="8">IF(J142&gt;0,"U1-"&amp;J142&amp;";","")&amp;IF(K142&gt;0,"U2-"&amp;K142&amp;";","")&amp;IF(L142&gt;0,"U3-"&amp;L142&amp;";","")&amp;IF(M142&gt;0,"U4-"&amp;M142&amp;";","")&amp;IF(N142&gt;0,"U6-"&amp;N142&amp;";","")&amp;IF(O142&gt;0,"U7-"&amp;O142&amp;";","")&amp;IF(P142&gt;0,"U8-"&amp;P142&amp;";","")&amp;IF(Q142&gt;0,"U9-"&amp;Q142&amp;";","")&amp;IF(R142&gt;0,"U10-"&amp;R142&amp;";","")&amp;U142</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA143" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.15">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.15">
       <c r="AA144" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA145" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA146" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA147" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA148" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA149" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA150" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA151" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA152" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA153" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA154" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA155" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA156" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA157" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA158" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA159" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA160" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA161" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA162" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA163" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA164" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA165" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA166" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA167" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA168" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA169" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA170" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA171" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA172" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA173" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA174" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA175" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA176" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA177" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA178" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA179" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA180" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA181" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA182" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA183" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA184" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA185" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA186" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA187" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA188" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA189" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA190" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA191" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA192" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA193" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA194" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA195" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA196" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA197" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA198" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA199" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA200" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA201" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA202" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA203" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA204" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA205" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA206" s="3" t="str">
-        <f t="shared" ref="AA206:AA257" si="8">IF(J206&gt;0,"U1-"&amp;J206&amp;";","")&amp;IF(K206&gt;0,"U2-"&amp;K206&amp;";","")&amp;IF(L206&gt;0,"U3-"&amp;L206&amp;";","")&amp;IF(M206&gt;0,"U4-"&amp;M206&amp;";","")&amp;IF(N206&gt;0,"U6-"&amp;N206&amp;";","")&amp;IF(O206&gt;0,"U7-"&amp;O206&amp;";","")&amp;IF(P206&gt;0,"U8-"&amp;P206&amp;";","")&amp;IF(Q206&gt;0,"U9-"&amp;Q206&amp;";","")&amp;IF(R206&gt;0,"U10-"&amp;R206&amp;";","")&amp;U206</f>
+        <f t="shared" ref="AA206:AA257" si="9">IF(J206&gt;0,"U1-"&amp;J206&amp;";","")&amp;IF(K206&gt;0,"U2-"&amp;K206&amp;";","")&amp;IF(L206&gt;0,"U3-"&amp;L206&amp;";","")&amp;IF(M206&gt;0,"U4-"&amp;M206&amp;";","")&amp;IF(N206&gt;0,"U6-"&amp;N206&amp;";","")&amp;IF(O206&gt;0,"U7-"&amp;O206&amp;";","")&amp;IF(P206&gt;0,"U8-"&amp;P206&amp;";","")&amp;IF(Q206&gt;0,"U9-"&amp;Q206&amp;";","")&amp;IF(R206&gt;0,"U10-"&amp;R206&amp;";","")&amp;U206</f>
         <v/>
       </c>
     </row>
     <row r="207" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA207" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA208" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA209" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA210" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA211" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA212" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA213" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA214" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA215" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA216" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA217" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA218" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA219" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA220" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA221" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA222" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA223" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA224" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA225" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA226" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA227" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA228" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA229" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA230" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA231" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA232" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA233" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA234" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA235" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA236" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA237" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA238" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA239" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA240" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA241" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA242" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA243" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA244" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA245" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA246" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA247" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA248" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA249" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA250" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA251" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA252" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA253" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA254" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA255" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA256" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="27:27" x14ac:dyDescent="0.15">
       <c r="AA257" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>

--- a/4月/4月份客户发货需求(4.12).xlsx
+++ b/4月/4月份客户发货需求(4.12).xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$129</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="autoNoTable"/>
 </workbook>
@@ -2271,8 +2271,8 @@
   <dimension ref="A1:AA257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I106" sqref="I106"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6607,7 +6607,7 @@
         <v>U2-1;U9-1;</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="10">
         <v>43566</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>U10-1;</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="10">
         <v>43566</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>U8-1;</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="10">
         <v>43566</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="10">
         <v>43566</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>U2-1;</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="10">
         <v>43566</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>U1-2;U3-2;U9-2;</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="10">
         <v>43566</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>U10-2;</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="10">
         <v>43566</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>U3-1;</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="10">
         <v>43566</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>2.2m*2m*7.5cm -1</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="10">
         <v>43566</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>U1-1;</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="10">
         <v>43566</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>U9-1;</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="10">
         <v>43566</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>U2-2;</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="10">
         <v>43566</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="10">
         <v>43566</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>U1-15;U2-15;U8-2;U10-2;</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="10">
         <v>43566</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>U1-2;U2-2;U8-3;U9-3;U10-1;</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A128" s="10">
         <v>43567</v>
       </c>
@@ -8571,10 +8571,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W111">
+  <autoFilter ref="A1:W129">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2019" month="4" day="11" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="4" day="12" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
